--- a/data/trans_dic/P16A_n_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,24</t>
+          <t>1,43; 4,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,61</t>
+          <t>3,28; 7,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,32</t>
+          <t>2,18; 6,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,74; 14,13</t>
+          <t>5,25; 15,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,9</t>
+          <t>8,61; 13,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,52; 19,47</t>
+          <t>12,54; 19,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,24; 14,55</t>
+          <t>7,95; 14,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,0; 20,38</t>
+          <t>9,4; 20,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 8,27</t>
+          <t>5,17; 8,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,72</t>
+          <t>8,56; 12,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 9,35</t>
+          <t>5,55; 9,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,18; 15,45</t>
+          <t>7,72; 15,02</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,08</t>
+          <t>2,63; 5,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 12,27</t>
+          <t>7,57; 12,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 10,11</t>
+          <t>5,93; 10,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 16,13</t>
+          <t>8,28; 16,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,35; 17,19</t>
+          <t>11,49; 17,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,95; 23,61</t>
+          <t>16,88; 24,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,67; 17,59</t>
+          <t>11,79; 17,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,42; 22,3</t>
+          <t>14,47; 22,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 10,07</t>
+          <t>6,96; 9,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,83; 16,96</t>
+          <t>12,86; 17,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,42; 13,18</t>
+          <t>9,51; 13,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,76; 18,32</t>
+          <t>12,69; 18,44</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,66; 10,74</t>
+          <t>6,44; 11,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,29; 15,61</t>
+          <t>10,38; 15,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,93; 12,63</t>
+          <t>8,06; 12,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,36; 17,6</t>
+          <t>11,62; 18,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,89; 17,38</t>
+          <t>12,04; 17,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,07; 27,49</t>
+          <t>20,9; 27,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,68; 20,46</t>
+          <t>14,89; 20,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,55; 24,41</t>
+          <t>17,64; 24,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,82; 13,39</t>
+          <t>10,11; 13,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,49; 20,76</t>
+          <t>16,57; 21,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,01; 15,73</t>
+          <t>12,11; 15,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,73; 20,38</t>
+          <t>15,96; 20,3</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,09; 18,62</t>
+          <t>11,91; 18,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,64; 21,05</t>
+          <t>14,55; 20,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,95; 22,36</t>
+          <t>15,97; 22,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,61; 28,73</t>
+          <t>19,16; 28,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,79; 27,09</t>
+          <t>19,82; 27,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,56; 37,09</t>
+          <t>29,21; 37,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,9; 31,11</t>
+          <t>23,72; 31,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,81; 37,59</t>
+          <t>31,23; 37,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,03; 21,76</t>
+          <t>16,87; 21,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,74; 28,02</t>
+          <t>22,8; 28,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,14; 26,0</t>
+          <t>21,05; 25,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,1; 32,16</t>
+          <t>26,05; 32,4</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,64; 38,62</t>
+          <t>29,89; 39,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,1; 46,21</t>
+          <t>35,99; 45,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,17; 39,25</t>
+          <t>30,44; 39,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,15; 46,02</t>
+          <t>37,89; 45,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,21; 49,19</t>
+          <t>39,58; 49,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,9; 61,63</t>
+          <t>51,12; 61,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,7; 57,09</t>
+          <t>47,86; 57,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,38; 55,05</t>
+          <t>48,55; 54,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36,07; 43,15</t>
+          <t>36,09; 42,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,48; 52,43</t>
+          <t>45,15; 52,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,5; 47,1</t>
+          <t>40,6; 47,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>44,1; 49,2</t>
+          <t>44,34; 49,45</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49,13; 57,56</t>
+          <t>48,79; 57,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>68,26; 76,04</t>
+          <t>68,21; 76,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>56,98; 64,75</t>
+          <t>56,88; 64,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>56,52; 62,81</t>
+          <t>56,56; 62,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,61; 72,53</t>
+          <t>65,51; 72,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>77,91; 83,85</t>
+          <t>77,69; 83,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>67,59; 74,31</t>
+          <t>67,48; 74,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>73,25; 83,6</t>
+          <t>73,15; 83,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59,74; 65,37</t>
+          <t>59,67; 65,07</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,45; 79,49</t>
+          <t>74,86; 79,59</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>64,17; 69,13</t>
+          <t>64,29; 69,55</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>67,19; 75,71</t>
+          <t>67,22; 76,39</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,23; 18,73</t>
+          <t>16,36; 18,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,61; 26,69</t>
+          <t>23,55; 26,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,54; 24,42</t>
+          <t>21,58; 24,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,98; 31,65</t>
+          <t>27,88; 31,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,31; 31,58</t>
+          <t>28,23; 31,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>38,48; 41,68</t>
+          <t>38,29; 41,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,21; 36,56</t>
+          <t>33,19; 36,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>40,01; 47,87</t>
+          <t>40,08; 48,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,64; 24,8</t>
+          <t>22,68; 24,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>31,65; 33,87</t>
+          <t>31,72; 33,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>27,94; 30,08</t>
+          <t>27,97; 30,15</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>34,88; 39,55</t>
+          <t>34,9; 40,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_n_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,07</t>
+          <t>1,3; 4,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 7,71</t>
+          <t>3,35; 7,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,08</t>
+          <t>2,15; 6,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,61; 13,99</t>
+          <t>8,41; 13,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,54; 19,45</t>
+          <t>12,85; 20,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 14,5</t>
+          <t>8,1; 14,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 8,3</t>
+          <t>5,31; 8,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,62</t>
+          <t>8,58; 12,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 9,24</t>
+          <t>5,54; 9,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,24</t>
+          <t>2,52; 5,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,57; 12,27</t>
+          <t>7,54; 12,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,3</t>
+          <t>5,76; 10,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,49; 17,17</t>
+          <t>11,57; 17,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,88; 24,27</t>
+          <t>16,99; 24,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,79; 17,8</t>
+          <t>11,94; 17,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,96; 9,95</t>
+          <t>7,02; 10,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,86; 17,02</t>
+          <t>12,72; 16,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 13,26</t>
+          <t>9,47; 12,98</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 11,13</t>
+          <t>6,33; 10,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,38; 15,5</t>
+          <t>10,3; 15,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,06; 12,69</t>
+          <t>8,02; 12,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,04; 17,57</t>
+          <t>11,96; 17,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,9; 27,5</t>
+          <t>21,28; 27,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,89; 20,36</t>
+          <t>14,89; 20,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,11; 13,49</t>
+          <t>9,91; 13,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,57; 21,05</t>
+          <t>16,55; 20,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,11; 15,76</t>
+          <t>11,82; 15,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,91; 18,72</t>
+          <t>12,42; 18,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,55; 20,81</t>
+          <t>14,7; 21,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,97; 22,45</t>
+          <t>16,15; 22,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,82; 27,05</t>
+          <t>20,05; 27,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,21; 37,37</t>
+          <t>29,02; 37,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,72; 31,25</t>
+          <t>23,54; 30,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,87; 21,7</t>
+          <t>16,86; 21,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,8; 28,02</t>
+          <t>22,74; 28,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,05; 25,95</t>
+          <t>20,92; 25,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,89; 39,59</t>
+          <t>29,17; 38,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,99; 45,62</t>
+          <t>35,75; 45,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,44; 39,28</t>
+          <t>30,5; 39,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,58; 49,25</t>
+          <t>39,6; 49,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,12; 61,43</t>
+          <t>51,51; 61,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,86; 57,36</t>
+          <t>47,82; 57,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36,09; 42,93</t>
+          <t>35,81; 42,74</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,15; 52,62</t>
+          <t>45,45; 52,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,6; 47,45</t>
+          <t>40,24; 47,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>48,79; 57,47</t>
+          <t>49,14; 57,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>68,21; 76,27</t>
+          <t>68,15; 76,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>56,88; 64,9</t>
+          <t>57,05; 64,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,51; 72,67</t>
+          <t>65,87; 72,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>77,69; 83,7</t>
+          <t>77,63; 83,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>67,48; 74,62</t>
+          <t>67,66; 74,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59,67; 65,07</t>
+          <t>59,63; 65,13</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,86; 79,59</t>
+          <t>74,66; 79,51</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>64,29; 69,55</t>
+          <t>63,96; 69,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,36; 18,89</t>
+          <t>16,06; 18,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,55; 26,78</t>
+          <t>23,74; 26,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,58; 24,4</t>
+          <t>21,55; 24,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,23; 31,32</t>
+          <t>28,02; 31,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>38,29; 41,79</t>
+          <t>38,31; 41,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,19; 36,54</t>
+          <t>33,29; 36,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,68; 24,7</t>
+          <t>22,72; 24,78</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>31,72; 33,95</t>
+          <t>31,59; 33,9</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>27,97; 30,15</t>
+          <t>27,97; 30,13</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P16A_n_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,15</t>
+          <t>1,4; 4,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,59</t>
+          <t>3,35; 7,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,29</t>
+          <t>1,99; 6,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 15,04</t>
+          <t>4,74; 14,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,41; 13,93</t>
+          <t>8,44; 13,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,85; 20,21</t>
+          <t>12,52; 19,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 14,14</t>
+          <t>8,24; 14,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,4; 20,8</t>
+          <t>9,0; 20,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,31; 8,27</t>
+          <t>5,27; 8,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,58; 12,57</t>
+          <t>8,75; 12,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 9,22</t>
+          <t>5,59; 9,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 15,02</t>
+          <t>8,18; 15,45</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,24</t>
+          <t>2,44; 5,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,54; 12,24</t>
+          <t>7,74; 12,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 10,09</t>
+          <t>5,91; 10,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,28; 16,13</t>
+          <t>8,13; 16,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,57; 17,51</t>
+          <t>11,35; 17,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,99; 24,08</t>
+          <t>16,95; 23,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,94; 17,7</t>
+          <t>11,67; 17,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,47; 22,81</t>
+          <t>14,42; 22,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,02; 10,06</t>
+          <t>7,04; 10,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,72; 16,68</t>
+          <t>12,83; 16,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 12,98</t>
+          <t>9,42; 13,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,69; 18,44</t>
+          <t>12,76; 18,32</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,33; 10,85</t>
+          <t>6,66; 10,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,3; 15,73</t>
+          <t>10,29; 15,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,02; 12,88</t>
+          <t>7,93; 12,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,62; 18,05</t>
+          <t>11,36; 17,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,96; 17,33</t>
+          <t>11,89; 17,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,28; 27,91</t>
+          <t>21,07; 27,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,89; 20,74</t>
+          <t>14,68; 20,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,64; 24,43</t>
+          <t>17,55; 24,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,91; 13,54</t>
+          <t>9,82; 13,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,55; 20,59</t>
+          <t>16,49; 20,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,82; 15,64</t>
+          <t>12,01; 15,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,96; 20,3</t>
+          <t>15,73; 20,38</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 18,98</t>
+          <t>12,09; 18,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,7; 21,33</t>
+          <t>14,64; 21,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,15; 22,77</t>
+          <t>15,95; 22,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,16; 28,91</t>
+          <t>18,61; 28,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,05; 27,45</t>
+          <t>19,79; 27,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,02; 37,31</t>
+          <t>29,56; 37,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,54; 30,96</t>
+          <t>23,9; 31,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,23; 37,55</t>
+          <t>30,81; 37,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,86; 21,87</t>
+          <t>17,03; 21,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,74; 28,06</t>
+          <t>22,74; 28,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,92; 25,9</t>
+          <t>21,14; 26,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,05; 32,4</t>
+          <t>26,1; 32,16</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,17; 38,89</t>
+          <t>29,64; 38,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,75; 45,7</t>
+          <t>36,1; 46,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,5; 39,68</t>
+          <t>30,17; 39,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,89; 45,91</t>
+          <t>38,15; 46,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,6; 49,58</t>
+          <t>39,21; 49,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,51; 61,25</t>
+          <t>51,9; 61,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,82; 57,34</t>
+          <t>47,7; 57,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,55; 54,78</t>
+          <t>48,38; 55,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35,81; 42,74</t>
+          <t>36,07; 43,15</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,45; 52,72</t>
+          <t>45,48; 52,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,24; 47,05</t>
+          <t>40,5; 47,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>44,34; 49,45</t>
+          <t>44,1; 49,2</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49,14; 57,68</t>
+          <t>49,13; 57,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>68,15; 76,19</t>
+          <t>68,26; 76,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>57,05; 64,58</t>
+          <t>56,98; 64,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>56,56; 62,72</t>
+          <t>56,52; 62,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,87; 72,78</t>
+          <t>65,61; 72,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>77,63; 83,67</t>
+          <t>77,91; 83,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>67,66; 74,7</t>
+          <t>67,59; 74,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>73,15; 83,9</t>
+          <t>73,25; 83,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59,63; 65,13</t>
+          <t>59,74; 65,37</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,66; 79,51</t>
+          <t>74,45; 79,49</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63,96; 69,28</t>
+          <t>64,17; 69,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>67,22; 76,39</t>
+          <t>67,19; 75,71</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,06; 18,9</t>
+          <t>16,23; 18,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,74; 26,76</t>
+          <t>23,61; 26,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,55; 24,43</t>
+          <t>21,54; 24,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,88; 31,5</t>
+          <t>27,98; 31,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,02; 31,28</t>
+          <t>28,31; 31,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>38,31; 41,72</t>
+          <t>38,48; 41,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,29; 36,56</t>
+          <t>33,21; 36,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>40,08; 48,64</t>
+          <t>40,01; 47,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,72; 24,78</t>
+          <t>22,64; 24,8</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>31,59; 33,9</t>
+          <t>31,65; 33,87</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>27,97; 30,13</t>
+          <t>27,94; 30,08</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>34,9; 40,3</t>
+          <t>34,88; 39,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_n_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>10,72%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,74; 14,13</t>
+          <t>4,58; 14,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,0; 20,38</t>
+          <t>9,07; 20,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,18; 15,45</t>
+          <t>7,72; 14,81</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>14,51%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 16,13</t>
+          <t>8,47; 16,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,42; 22,3</t>
+          <t>10,42; 20,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,76; 18,32</t>
+          <t>10,9; 17,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>17,58%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,36; 17,6</t>
+          <t>11,27; 17,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,55; 24,41</t>
+          <t>14,99; 23,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,73; 20,38</t>
+          <t>14,77; 19,88</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,29%</t>
+          <t>33,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>25,48%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,61; 28,73</t>
+          <t>8,29; 27,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,81; 37,59</t>
+          <t>27,76; 36,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,1; 32,16</t>
+          <t>15,61; 30,91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>41,91%</t>
+          <t>42,21%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>51,73%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>46,8%</t>
+          <t>46,91%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,15; 46,02</t>
+          <t>38,49; 46,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,38; 55,05</t>
+          <t>48,47; 55,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>44,1; 49,2</t>
+          <t>44,12; 49,24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>53,29%</t>
+          <t>44,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>72,36%</t>
+          <t>66,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>60,9%</t>
+          <t>52,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>59,72%</t>
+          <t>53,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>69,12%</t>
+          <t>65,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>80,97%</t>
+          <t>73,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>71,26%</t>
+          <t>64,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>76,79%</t>
+          <t>77,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>62,38%</t>
+          <t>55,61%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>77,27%</t>
+          <t>70,36%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>66,79%</t>
+          <t>58,84%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>69,88%</t>
+          <t>68,66%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49,13; 57,56</t>
+          <t>38,9; 50,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>68,26; 76,04</t>
+          <t>60,99; 72,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>56,98; 64,75</t>
+          <t>47,5; 58,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>56,52; 62,81</t>
+          <t>49,28; 57,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,61; 72,53</t>
+          <t>59,96; 69,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>77,91; 83,85</t>
+          <t>68,59; 78,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>67,59; 74,31</t>
+          <t>58,96; 68,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>73,25; 83,6</t>
+          <t>65,89; 91,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59,74; 65,37</t>
+          <t>51,66; 59,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,45; 79,49</t>
+          <t>66,91; 74,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>64,17; 69,13</t>
+          <t>55,26; 62,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>67,19; 75,71</t>
+          <t>59,55; 86,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>65,71%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>79,73%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>71,84%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>68,38%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>73,15%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>40,0%</t>
+          <t>87,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>77,68%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>81,11%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>70,28%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>84,45%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>75,4%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>76,03%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>59,45; 72,02</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>74,08; 84,57</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>66,6; 76,4</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>63,67; 73,17</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>67,51; 77,69</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>83,63; 90,91</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>72,9; 82,36</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>78,1; 83,62</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>65,99; 73,85</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>81,22; 87,07</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>71,55; 78,83</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>73,59; 78,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>17,46%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25,26%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>22,95%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>27,79%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>29,79%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>40,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>34,81%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>42,74%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23,72%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>32,77%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>29,01%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>35,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>16,23; 18,73</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>23,61; 26,69</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>21,54; 24,42</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>27,98; 31,65</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>21,41; 30,56</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>28,31; 31,58</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>38,48; 41,68</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>33,21; 36,56</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>40,01; 47,87</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>38,53; 52,07</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>22,64; 24,8</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>31,65; 33,87</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>27,94; 30,08</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>34,88; 39,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>31,99; 40,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A_n_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,24</t>
+          <t>1,36; 4,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,61</t>
+          <t>3,36; 7,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,32</t>
+          <t>2,2; 6,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 14,04</t>
+          <t>4,39; 14,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,9</t>
+          <t>8,52; 14,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,52; 19,47</t>
+          <t>13,03; 20,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,24; 14,55</t>
+          <t>8,28; 14,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,07; 20,17</t>
+          <t>8,52; 19,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 8,27</t>
+          <t>5,2; 8,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,72</t>
+          <t>8,56; 12,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 9,35</t>
+          <t>5,71; 9,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 14,81</t>
+          <t>7,77; 14,88</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,08</t>
+          <t>2,53; 5,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 12,27</t>
+          <t>7,67; 12,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 10,11</t>
+          <t>5,65; 10,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 16,9</t>
+          <t>8,54; 16,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,35; 17,19</t>
+          <t>11,48; 17,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,95; 23,61</t>
+          <t>16,97; 23,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,67; 17,59</t>
+          <t>11,94; 18,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,42; 20,6</t>
+          <t>10,15; 21,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 10,07</t>
+          <t>6,97; 10,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,83; 16,96</t>
+          <t>12,8; 16,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,42; 13,18</t>
+          <t>9,37; 13,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,9; 17,6</t>
+          <t>10,86; 17,5</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,66; 10,74</t>
+          <t>6,43; 10,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,29; 15,61</t>
+          <t>10,03; 15,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,93; 12,63</t>
+          <t>7,86; 12,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,27; 17,48</t>
+          <t>11,8; 18,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,89; 17,38</t>
+          <t>11,85; 17,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,07; 27,49</t>
+          <t>20,92; 27,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,68; 20,46</t>
+          <t>14,83; 20,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,99; 23,95</t>
+          <t>15,97; 24,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,82; 13,39</t>
+          <t>9,85; 13,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,49; 20,76</t>
+          <t>16,66; 20,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,01; 15,73</t>
+          <t>11,84; 15,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,77; 19,88</t>
+          <t>14,75; 19,93</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,09; 18,62</t>
+          <t>12,38; 18,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,64; 21,05</t>
+          <t>14,66; 21,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,95; 22,36</t>
+          <t>16,03; 22,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,29; 27,74</t>
+          <t>8,44; 27,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,79; 27,09</t>
+          <t>20,03; 27,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,56; 37,09</t>
+          <t>29,06; 37,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,9; 31,11</t>
+          <t>23,73; 31,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,76; 36,52</t>
+          <t>27,67; 36,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,03; 21,76</t>
+          <t>16,69; 21,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,74; 28,02</t>
+          <t>22,8; 27,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,14; 26,0</t>
+          <t>21,13; 25,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,61; 30,91</t>
+          <t>14,65; 31,07</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,64; 38,62</t>
+          <t>29,27; 38,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,1; 46,21</t>
+          <t>36,12; 45,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,17; 39,25</t>
+          <t>30,04; 39,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,49; 46,33</t>
+          <t>38,37; 46,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,21; 49,19</t>
+          <t>39,31; 49,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,9; 61,63</t>
+          <t>51,55; 61,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,7; 57,09</t>
+          <t>47,51; 57,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,47; 55,0</t>
+          <t>48,64; 55,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36,07; 43,15</t>
+          <t>35,86; 42,75</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,48; 52,43</t>
+          <t>45,36; 52,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40,5; 47,1</t>
+          <t>40,26; 47,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>44,12; 49,24</t>
+          <t>44,07; 49,26</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>38,9; 50,05</t>
+          <t>38,52; 50,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>60,99; 72,28</t>
+          <t>60,35; 71,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,5; 58,22</t>
+          <t>46,73; 58,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>49,28; 57,82</t>
+          <t>48,66; 56,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>59,96; 69,63</t>
+          <t>59,95; 69,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>68,59; 78,26</t>
+          <t>69,0; 78,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>58,96; 68,98</t>
+          <t>59,59; 69,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>65,89; 91,83</t>
+          <t>65,75; 91,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51,66; 59,4</t>
+          <t>52,1; 59,57</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>66,91; 74,0</t>
+          <t>66,74; 74,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>55,26; 62,66</t>
+          <t>54,9; 62,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>59,55; 86,14</t>
+          <t>59,58; 82,55</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>59,45; 72,02</t>
+          <t>58,75; 72,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>74,08; 84,57</t>
+          <t>74,19; 84,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>66,6; 76,4</t>
+          <t>66,32; 76,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>63,67; 73,17</t>
+          <t>63,98; 72,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>67,51; 77,69</t>
+          <t>67,59; 77,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>83,63; 90,91</t>
+          <t>83,69; 90,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>72,9; 82,36</t>
+          <t>73,14; 82,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>78,1; 83,62</t>
+          <t>78,42; 83,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>65,99; 73,85</t>
+          <t>66,14; 74,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>81,22; 87,07</t>
+          <t>80,9; 87,01</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>71,55; 78,83</t>
+          <t>71,74; 78,7</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>73,59; 78,63</t>
+          <t>73,36; 78,27</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,23; 18,73</t>
+          <t>16,13; 18,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>23,61; 26,69</t>
+          <t>23,8; 26,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,54; 24,42</t>
+          <t>21,53; 24,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21,41; 30,56</t>
+          <t>22,24; 30,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,31; 31,58</t>
+          <t>28,15; 31,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,48; 41,68</t>
+          <t>38,38; 41,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>33,21; 36,56</t>
+          <t>33,07; 36,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38,53; 52,07</t>
+          <t>38,68; 54,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>22,64; 24,8</t>
+          <t>22,7; 24,77</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>31,65; 33,87</t>
+          <t>31,64; 34,01</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>27,94; 30,08</t>
+          <t>27,92; 30,15</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>31,99; 40,93</t>
+          <t>32,06; 41,87</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12285</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23763</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15691</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>33796</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>51493</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>68725</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>43235</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>42624</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>63779</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>92488</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>58926</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>76419</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6703; 20208</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15239; 34908</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9233; 25630</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17571; 58754</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>39848; 67008</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>56043; 86928</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>32759; 56858</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>26685; 62559</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>49961; 79528</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>75692; 112586</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>46580; 75339</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>55436; 106108</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>27346</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>67255</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>46111</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>51505</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>88143</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>123674</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>82919</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>84230</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>115489</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>190928</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>129029</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>135734</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18627; 38997</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>52733; 83613</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>33383; 59959</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>36178; 71287</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>71803; 108181</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>103565; 145205</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>67302; 102275</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>51964; 108110</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>94895; 139237</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>166113; 215790</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>108176; 150822</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>101651; 163770</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>53600</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>86187</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>67953</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>77370</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>99963</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>172040</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>115402</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>121025</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>153563</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>258227</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>183355</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>198394</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>41088; 67906</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>68373; 104528</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>52577; 84574</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>63305; 97915</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>81720; 121554</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>148706; 194482</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>98081; 135278</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>94571; 142847</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>130830; 175685</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>232024; 290151</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>157592; 210166</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>166380; 224866</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>78993</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>108073</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>123521</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>172157</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>120291</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>204084</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>177715</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>235686</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>199284</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>312157</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>301236</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>407843</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>64253; 97759</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>90092; 130510</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>103578; 146830</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>74930; 247129</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>103267; 140029</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>179037; 229038</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>154027; 201767</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>197282; 258458</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>172733; 226490</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>280588; 342096</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>273684; 336053</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>234569; 497320</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>132110</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>175346</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>165574</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>236925</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>178777</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>253361</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>260201</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>283409</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>310887</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>428708</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>425774</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>520334</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>113179; 149848</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>155109; 195914</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>143576; 187962</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>215319; 261655</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>158826; 198566</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>230861; 274497</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>236076; 285474</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>266524; 301408</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>283510; 338021</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>397912; 459898</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>392476; 461569</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>488829; 546344</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>129842</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>205726</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>175482</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>196215</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>223586</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>261306</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>243527</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>474296</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>353428</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>467031</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>419008</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>670511</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>112699; 146951</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>186966; 221819</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>156239; 194099</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>179159; 209511</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>205591; 238025</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>244245; 278084</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>225091; 261368</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>399999; 553912</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>331097; 378604</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>442993; 492055</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>390929; 444570</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>581849; 806115</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>137924</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>199212</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>184635</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>193364</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>244260</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>340288</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>310838</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>345399</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>382184</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>539500</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>495474</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>538763</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>123309; 151170</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>185353; 211557</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>170445; 196977</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>180911; 205486</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>225704; 259886</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>325542; 352420</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>292667; 328568</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>333922; 357335</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>359645; 404229</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>516815; 555848</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>471459; 517213</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>519847; 554594</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1317</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2479</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1562</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>2103</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1870</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3686</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>572101</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>865562</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>778966</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>961331</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1006514</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1423478</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1233836</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1586668</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1578614</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>2289040</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2012802</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2547999</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>528509; 612482</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>815615; 920105</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>730904; 829383</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>769346; 1057510</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>951145; 1064005</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1365655; 1482575</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1172285; 1289757</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1435776; 2015906</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1510894; 1648760</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>2210371; 2375709</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1937437; 2091778</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>2299674; 3002654</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>